--- a/PALMEIRA_DAS_MISSOES.xlsx
+++ b/PALMEIRA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739D4261-6DBA-4075-9A72-A7FB38056DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C436CAF9-5756-47B4-B2A7-D3522C2B098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,20 +22,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1205,7 +1192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1265,36 +1252,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,14 +1296,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,7 +1351,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{798639D2-1330-47FB-9920-DC92E08E60DE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C4D11B8-0969-42C5-BDED-D4AAA258B05C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1423,10 +1381,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3C5F2F-9099-4C97-A3CA-FB4ABCCC0EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDC0599-DC13-486F-A1BB-38496576F55B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1422,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5357AE8B-ADDD-42AC-98CC-27B621B7FA19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D51EF2-FF05-40CC-8A57-66FC2164F0B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EC6CF1-5173-4D67-A818-41D1573540EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EE6BAB-4142-41C4-8796-0DFA3617C8F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1504,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5F5FCB-9056-CAAC-688B-C853BE573110}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBD0CA7-109B-58B0-6985-387528CB6D04}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1595,7 +1553,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA581251-0C0C-FD76-0097-C141C0EAD125}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D311DBEF-AC5E-B15E-E67F-A1D9799205CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1614,7 +1572,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BEAE3A-9A94-EB9F-063A-1DD253851788}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4C1227-1375-ACA6-40BF-7C3A7E3E82CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1645,7 +1603,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757B0944-EC00-A6EB-9E41-553AF431CB25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6942E3-A754-7DFC-6B27-407348D3A3A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1676,7 +1634,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A444A32-19E8-9EC5-D0FC-961DDD47BDA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA53A463-DC71-FBA2-91A5-DB0E320B3E1C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1719,7 +1677,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747C0585-4CB6-4525-A1B5-E1564C2BD862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8387570-FEA9-44AA-A088-E5AEE4958D81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1715,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F31966-308B-43F5-9C93-0A8E3114320B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7147C19-478F-4145-AEF5-829FD196DB4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1758,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8BA14B-9C87-4D31-9208-6903769767CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256A222-3368-4E9A-A415-6E16B9CE0228}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1220056-C258-40E0-8AD3-D565589589DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E73848-908A-4229-AEBC-0110E3746E2C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2125,98 +2083,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="40"/>
-    <col min="6" max="6" width="2" style="40" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="40" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="40"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="39"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="39"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="39"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="39"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5768,19 +5726,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5803,68 +5761,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5882,16 +5840,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,7 +5883,7 @@
       <c r="J1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5939,10 +5897,10 @@
       <c r="C2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>24.12</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>2.41</v>
       </c>
       <c r="F2" s="2">
@@ -5960,7 +5918,7 @@
       <c r="J2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -5974,10 +5932,10 @@
       <c r="C3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>134.74</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>13.47</v>
       </c>
       <c r="F3" s="2">
@@ -5995,7 +5953,7 @@
       <c r="J3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6009,10 +5967,10 @@
       <c r="C4" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>184.9</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>18.489999999999998</v>
       </c>
       <c r="F4" s="2">
@@ -6030,7 +5988,7 @@
       <c r="J4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6044,10 +6002,10 @@
       <c r="C5" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>75.900000000000006</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>7.59</v>
       </c>
       <c r="F5" s="2">
@@ -6065,7 +6023,7 @@
       <c r="J5" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6079,10 +6037,10 @@
       <c r="C6" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>75.900000000000006</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>7.59</v>
       </c>
       <c r="F6" s="2">
@@ -6100,7 +6058,7 @@
       <c r="J6" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6114,10 +6072,10 @@
       <c r="C7" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>75.900000000000006</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>7.59</v>
       </c>
       <c r="F7" s="2">
@@ -6135,7 +6093,7 @@
       <c r="J7" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6149,10 +6107,10 @@
       <c r="C8" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>1768.99</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>176.9</v>
       </c>
       <c r="F8" s="2">
@@ -6170,7 +6128,7 @@
       <c r="J8" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6184,10 +6142,10 @@
       <c r="C9" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="21">
         <v>1556</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>727.43</v>
       </c>
       <c r="F9" s="2">
@@ -6205,7 +6163,7 @@
       <c r="J9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>1897</v>
       </c>
     </row>
@@ -6219,10 +6177,10 @@
       <c r="C10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>718</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>71.8</v>
       </c>
       <c r="F10" s="2">
@@ -6240,7 +6198,7 @@
       <c r="J10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <v>707</v>
       </c>
     </row>
@@ -6265,54 +6223,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="23" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6323,43 +6282,43 @@
       <c r="B2" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="26">
         <v>45139</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>4126</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>8603</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>1403</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="29" t="s">
         <v>343</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="29" t="s">
         <v>343</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="30" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6390,25 +6349,24 @@
       <c r="B1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="35">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="32">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="35">
         <v>119</v>
       </c>
-      <c r="F1" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="38">
-        <v>119</v>
-      </c>
-      <c r="C2" s="36">
+      <c r="C2" s="33">
         <v>7.8693294537759556E-3</v>
       </c>
     </row>

--- a/PALMEIRA_DAS_MISSOES.xlsx
+++ b/PALMEIRA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C436CAF9-5756-47B4-B2A7-D3522C2B098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C239DA-A6EA-44CC-9B53-577E1EA94B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C4D11B8-0969-42C5-BDED-D4AAA258B05C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{096B9023-FD52-41B6-BA83-74FE01A1CB7C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1381,10 +1381,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDC0599-DC13-486F-A1BB-38496576F55B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C68B89-BE6A-4204-897A-9E662E11B7A7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D51EF2-FF05-40CC-8A57-66FC2164F0B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC9B0CF-FBFD-4AAD-AA35-FF5E4008B1B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EE6BAB-4142-41C4-8796-0DFA3617C8F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECB2A99-D8F7-4A79-B449-100EB4FBEB26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBD0CA7-109B-58B0-6985-387528CB6D04}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC223579-B5AA-E2C5-DB2D-646BA810C1B9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1553,7 +1553,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D311DBEF-AC5E-B15E-E67F-A1D9799205CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD42901-5E70-FFCB-B994-3C685E73FB46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4C1227-1375-ACA6-40BF-7C3A7E3E82CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2077B642-CCD4-7E18-65FD-C6C4912D543A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1603,7 +1603,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6942E3-A754-7DFC-6B27-407348D3A3A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2DB9F7-E1D1-3EEF-5B94-B56F2ECBDB5D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1634,7 +1634,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA53A463-DC71-FBA2-91A5-DB0E320B3E1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39D3C35-B887-4025-9A87-7F309300402F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1677,7 +1677,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8387570-FEA9-44AA-A088-E5AEE4958D81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3C8F87-A153-482E-AD8B-3D4DC640ECA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1715,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7147C19-478F-4145-AEF5-829FD196DB4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA061F3-FE54-41E2-BD60-E1C1ED5E07FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1758,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256A222-3368-4E9A-A415-6E16B9CE0228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD012796-0497-465E-89C1-55CAFEBBFF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E73848-908A-4229-AEBC-0110E3746E2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BCC364-3B29-4CB4-97CE-8FF482EEEA96}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PALMEIRA_DAS_MISSOES.xlsx
+++ b/PALMEIRA_DAS_MISSOES.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C239DA-A6EA-44CC-9B53-577E1EA94B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8EA93D-F235-441C-B679-C818B775A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="346">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1065,12 +1064,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,27 +1324,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{096B9023-FD52-41B6-BA83-74FE01A1CB7C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{43167385-5C5B-4B89-B069-919E1D7909AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1381,10 +1359,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C68B89-BE6A-4204-897A-9E662E11B7A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98BEF2E-299D-49F3-91C2-477183766143}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1400,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC9B0CF-FBFD-4AAD-AA35-FF5E4008B1B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3E790B-CCD1-4104-B79B-1D80F6F19EA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1463,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECB2A99-D8F7-4A79-B449-100EB4FBEB26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25776384-7ADB-4E5E-8E77-E6C87C6DDB66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1482,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC223579-B5AA-E2C5-DB2D-646BA810C1B9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5F3B5A-4F4A-FACC-4E20-2989F72EC63B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1553,7 +1531,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD42901-5E70-FFCB-B994-3C685E73FB46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4461E619-A102-E283-2962-F2FBA715A385}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1572,7 +1550,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2077B642-CCD4-7E18-65FD-C6C4912D543A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6FC357-5C6D-3C43-7EEE-CF2CD739BE01}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1603,7 +1581,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2DB9F7-E1D1-3EEF-5B94-B56F2ECBDB5D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56F9FC2-C416-E678-E72C-B22A9B54006A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1634,7 +1612,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39D3C35-B887-4025-9A87-7F309300402F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F6696A-19F2-DD1C-C252-2F522BB08034}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1677,7 +1655,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3C8F87-A153-482E-AD8B-3D4DC640ECA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2739174-EEDF-42C2-B883-7B28D5260ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1693,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA061F3-FE54-41E2-BD60-E1C1ED5E07FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9996F394-AF30-41ED-8C2A-0BE8EC1584D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1736,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD012796-0497-465E-89C1-55CAFEBBFF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E997F21D-8E46-4701-A26C-50EC2E530E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BCC364-3B29-4CB4-97CE-8FF482EEEA96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FA5D9F-08B8-4D72-8C8D-4D23BB9D4931}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2083,98 +2061,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6325,52 +6303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="35">
-        <v>119</v>
-      </c>
-      <c r="C2" s="33">
-        <v>7.8693294537759556E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PALMEIRA_DAS_MISSOES.xlsx
+++ b/PALMEIRA_DAS_MISSOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8EA93D-F235-441C-B679-C818B775A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EA76D0-FB5E-4DFE-BD09-35651DE6BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{43167385-5C5B-4B89-B069-919E1D7909AA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E2CFC813-D0EA-4549-B455-60C53097ABAF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,10 +1359,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98BEF2E-299D-49F3-91C2-477183766143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05258058-BEDD-4264-A3B2-3BEC865EEFA8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3E790B-CCD1-4104-B79B-1D80F6F19EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C23A8ED-FA02-463C-899B-110FA2418203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25776384-7ADB-4E5E-8E77-E6C87C6DDB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059B9F99-3807-49F6-9CE7-38B2388E046D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1482,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5F3B5A-4F4A-FACC-4E20-2989F72EC63B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40756F5-CDEB-A5A7-358D-EE366FAC91D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1531,7 +1531,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4461E619-A102-E283-2962-F2FBA715A385}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF2C025-8441-EDBF-4EF0-A476D8E7D298}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6FC357-5C6D-3C43-7EEE-CF2CD739BE01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBFDE6B-D83F-8D86-A65F-A4E0C837689A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56F9FC2-C416-E678-E72C-B22A9B54006A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46485B8-7067-01CC-8937-226900251552}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1612,7 +1612,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F6696A-19F2-DD1C-C252-2F522BB08034}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2831EE6-7C1E-3019-E6FE-F2B8928E0BBB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1655,7 +1655,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2739174-EEDF-42C2-B883-7B28D5260ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6166026-4F9A-44FE-993F-B780684758E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9996F394-AF30-41ED-8C2A-0BE8EC1584D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54803B2-A033-4208-A38F-57E6DCF92E31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,50 +1718,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E997F21D-8E46-4701-A26C-50EC2E530E1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2049,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FA5D9F-08B8-4D72-8C8D-4D23BB9D4931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F814AD8B-4BF0-4EBF-8AB4-A0F9C67B130A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
